--- a/Calculo_Lop.xlsx
+++ b/Calculo_Lop.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\Mi_destino_Lopez\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{60734CE0-55DE-49BB-916A-01E3D75BE180}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{180E0D51-FD69-4D91-8250-F5FF2F574D89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2A7D8C9B-21F1-4BE9-9A2D-CEF21462764E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Calculo de la nota</t>
   </si>
@@ -40,6 +40,9 @@
   </si>
   <si>
     <t>Redondeado</t>
+  </si>
+  <si>
+    <t>Archivo modificadooo para la presentación</t>
   </si>
 </sst>
 </file>
@@ -150,21 +153,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -172,9 +175,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -497,10 +497,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA5C041F-AB62-4074-9818-C851E7BDA0E5}">
-  <dimension ref="B3:G7"/>
+  <dimension ref="B3:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -509,47 +509,47 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:7" ht="21" x14ac:dyDescent="0.35">
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="2:7" ht="21" x14ac:dyDescent="0.3">
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <v>7.3</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="3">
         <v>7</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="4">
         <f>C4*D4/10</f>
         <v>5.1100000000000003</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="21" x14ac:dyDescent="0.3">
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <v>8</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="3">
         <v>3</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="3">
         <f>C5*D5/10</f>
         <v>2.4</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="21" x14ac:dyDescent="0.3">
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="6">
@@ -560,15 +560,20 @@
       <c r="E6" s="8"/>
     </row>
     <row r="7" spans="2:7" ht="21" x14ac:dyDescent="0.4">
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="9">
         <f>ROUND(C6, 0)</f>
         <v>8</v>
       </c>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
